--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2022/Xuất Kho T7/XKSX_SuaLE-4G.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Xuất Kho 2022/Xuất Kho T7/XKSX_SuaLE-4G.xlsx
@@ -411,19 +411,19 @@
     <t>Tên Khách hàng:</t>
   </si>
   <si>
+    <t>Bộ phận/ Phòng ban: Sản xuất - Bảo hành…………………………………….</t>
+  </si>
+  <si>
+    <t>VT_GD32F303RCT6</t>
+  </si>
+  <si>
+    <t>VT_RES_R0603 0R</t>
+  </si>
+  <si>
+    <t>Xuất kho thay thế cho thiết bị TG102LE-4G</t>
+  </si>
+  <si>
     <t>Hà Nội, Ngày 15 Tháng 07 Năm 2022</t>
-  </si>
-  <si>
-    <t>Bộ phận/ Phòng ban: Sản xuất - Bảo hành…………………………………….</t>
-  </si>
-  <si>
-    <t>VT_GD32F303RCT6</t>
-  </si>
-  <si>
-    <t>VT_RES_R0603 0R</t>
-  </si>
-  <si>
-    <t>Xuất kho thay thế cho thiết bị TG102LE-4G</t>
   </si>
 </sst>
 </file>
@@ -1378,6 +1378,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1604,12 +1610,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3247,7 +3247,7 @@
   <dimension ref="A2:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3305,13 +3305,13 @@
     </row>
     <row r="6" spans="1:7" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>121</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F6" s="133"/>
       <c r="G6" s="133"/>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>92</v>
@@ -3358,8 +3358,8 @@
         <v>1000</v>
       </c>
       <c r="E9" s="78"/>
-      <c r="F9" s="210" t="s">
-        <v>130</v>
+      <c r="F9" s="134" t="s">
+        <v>129</v>
       </c>
       <c r="G9" s="68"/>
     </row>
@@ -3368,7 +3368,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="68" t="s">
         <v>92</v>
@@ -3377,7 +3377,7 @@
         <v>1000</v>
       </c>
       <c r="E10" s="88"/>
-      <c r="F10" s="211"/>
+      <c r="F10" s="135"/>
       <c r="G10" s="68"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3399,35 +3399,35 @@
       <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="136"/>
-      <c r="C13" s="138" t="s">
+      <c r="B13" s="138"/>
+      <c r="C13" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138" t="s">
+      <c r="D13" s="140"/>
+      <c r="E13" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="138"/>
+      <c r="F13" s="140"/>
       <c r="G13" s="83" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137" t="s">
+      <c r="B14" s="139"/>
+      <c r="C14" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137" t="s">
+      <c r="D14" s="139"/>
+      <c r="E14" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="137"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="82" t="s">
         <v>6</v>
       </c>
@@ -3463,8 +3463,8 @@
       <c r="C18" s="65"/>
       <c r="D18" s="76"/>
       <c r="E18" s="65"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="62"/>
@@ -3476,37 +3476,37 @@
       <c r="G19" s="62"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="137" t="s">
+      <c r="A20" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="137"/>
-      <c r="C20" s="139" t="s">
+      <c r="B20" s="139"/>
+      <c r="C20" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139" t="s">
+      <c r="D20" s="141"/>
+      <c r="E20" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="139"/>
+      <c r="F20" s="141"/>
       <c r="G20" s="91" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="134" t="s">
+      <c r="E23" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3588,10 +3588,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146"/>
-      <c r="B1" s="147"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="143" t="s">
+      <c r="A1" s="148"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="145" t="s">
         <v>94</v>
       </c>
       <c r="E1" s="126"/>
@@ -3602,10 +3602,10 @@
       <c r="H1" s="120"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149"/>
+      <c r="A2" s="151"/>
       <c r="B2" s="132"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="144"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="146"/>
       <c r="E2" s="128"/>
       <c r="F2" s="129"/>
       <c r="G2" s="120" t="s">
@@ -3614,10 +3614,10 @@
       <c r="H2" s="120"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="145"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="130"/>
       <c r="F3" s="131"/>
       <c r="G3" s="120" t="s">
@@ -3626,16 +3626,16 @@
       <c r="H3" s="120"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="158" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="99" t="s">
@@ -3677,10 +3677,10 @@
       <c r="A7" s="69">
         <v>1</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="142"/>
+      <c r="C7" s="144"/>
       <c r="D7" s="80" t="s">
         <v>119</v>
       </c>
@@ -3706,36 +3706,36 @@
       <c r="H8" s="70"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140" t="s">
+      <c r="B9" s="142"/>
+      <c r="C9" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140" t="s">
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="140"/>
+      <c r="H9" s="142"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="157" t="s">
+      <c r="A10" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157" t="s">
+      <c r="B10" s="159"/>
+      <c r="C10" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157" t="s">
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="157"/>
+      <c r="H10" s="159"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -3748,24 +3748,24 @@
       <c r="H11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155" t="s">
+      <c r="B15" s="157"/>
+      <c r="C15" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155" t="s">
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="155"/>
+      <c r="H15" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3823,11 +3823,11 @@
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="113"/>
       <c r="B2" s="113"/>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="162"/>
-      <c r="E2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="165"/>
       <c r="F2" s="32" t="s">
         <v>75</v>
       </c>
@@ -3835,9 +3835,9 @@
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="113"/>
       <c r="B3" s="113"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="168"/>
       <c r="F3" s="32" t="s">
         <v>71</v>
       </c>
@@ -3845,18 +3845,18 @@
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="113"/>
       <c r="B4" s="113"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="171"/>
       <c r="F4" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="160"/>
+      <c r="B5" s="162"/>
       <c r="F5" s="22" t="s">
         <v>45</v>
       </c>
@@ -4095,32 +4095,32 @@
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="170" t="s">
+      <c r="E37" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="170"/>
+      <c r="F37" s="172"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="158" t="s">
+      <c r="B38" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="158"/>
+      <c r="C38" s="160"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="158" t="s">
+      <c r="E38" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="158"/>
+      <c r="F38" s="160"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="159" t="s">
+      <c r="B39" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="159"/>
+      <c r="C39" s="161"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="159" t="s">
+      <c r="E39" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="159"/>
+      <c r="F39" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4167,76 +4167,76 @@
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="113"/>
       <c r="B2" s="113"/>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="184" t="s">
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="185"/>
-      <c r="L2" s="186"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="188"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="113"/>
       <c r="B3" s="113"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="184" t="s">
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="185"/>
-      <c r="L3" s="186"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="188"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="113"/>
       <c r="B4" s="113"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="184" t="s">
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="185"/>
-      <c r="L4" s="186"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="188"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="184" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182" t="s">
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="27"/>
@@ -4328,58 +4328,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="179" t="s">
+      <c r="A21" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="180" t="s">
+      <c r="C21" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="180" t="s">
+      <c r="D21" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="175" t="s">
+      <c r="E21" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="175" t="s">
+      <c r="F21" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175" t="s">
+      <c r="G21" s="177"/>
+      <c r="H21" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="175" t="s">
+      <c r="I21" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="175" t="s">
+      <c r="J21" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="173" t="s">
+      <c r="K21" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="171" t="s">
+      <c r="L21" s="173" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="179"/>
-      <c r="B22" s="180"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="175"/>
+      <c r="A22" s="181"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="177"/>
       <c r="F22" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="175"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="174"/>
-      <c r="L22" s="172"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="174"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -4424,45 +4424,45 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="178" t="s">
+      <c r="D26" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="180"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="158" t="s">
+      <c r="A27" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158" t="s">
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="158"/>
-      <c r="H27" s="158" t="s">
+      <c r="F27" s="160"/>
+      <c r="H27" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="158"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="160"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159" t="s">
+      <c r="C28" s="161"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="159"/>
-      <c r="I28" s="159" t="s">
+      <c r="F28" s="161"/>
+      <c r="I28" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="159"/>
+      <c r="J28" s="161"/>
       <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4497,74 +4497,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="177" t="s">
+      <c r="B32" s="179" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="177"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="177"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="179"/>
     </row>
     <row r="33" spans="1:11" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="177" t="s">
+      <c r="A33" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="177"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="177"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="179"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="176" t="s">
+      <c r="A34" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="176"/>
-      <c r="K34" s="176"/>
+      <c r="B34" s="178"/>
+      <c r="C34" s="178"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="178"/>
+      <c r="K34" s="178"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="176" t="s">
+      <c r="A35" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="176"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="176"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="178"/>
+      <c r="D35" s="178"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="178"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="176" t="s">
+      <c r="A36" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4638,60 +4638,60 @@
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="113"/>
       <c r="B2" s="113"/>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="184" t="s">
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="186"/>
+      <c r="K2" s="188"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="113"/>
       <c r="B3" s="113"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="184" t="s">
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="186"/>
+      <c r="K3" s="188"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="113"/>
       <c r="B4" s="113"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="184" t="s">
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="186"/>
+      <c r="K4" s="188"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="184" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4705,12 +4705,12 @@
       <c r="E6" s="12"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="194" t="s">
+      <c r="H6" s="196" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
@@ -4740,10 +4740,10 @@
       <c r="I7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="188" t="s">
+      <c r="J7" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="189"/>
+      <c r="K7" s="191"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -4757,8 +4757,8 @@
       <c r="G8" s="44"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="197"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="199"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -4772,8 +4772,8 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="197"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="199"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
@@ -4787,8 +4787,8 @@
       <c r="G10" s="44"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="199"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="201"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -4802,8 +4802,8 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="199"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="201"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -4817,8 +4817,8 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="199"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="201"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -4832,14 +4832,14 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="199"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="201"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="191"/>
+      <c r="B14" s="193"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -4847,30 +4847,30 @@
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="201"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="203"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="195" t="s">
+      <c r="A16" s="197" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="195"/>
-      <c r="C16" s="195"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="197"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="195" t="s">
+      <c r="E16" s="197" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="195"/>
-      <c r="G16" s="195" t="s">
+      <c r="F16" s="197"/>
+      <c r="G16" s="197" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="195" t="s">
+      <c r="H16" s="197"/>
+      <c r="I16" s="197" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="195"/>
-      <c r="K16" s="195"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
     </row>
@@ -4945,10 +4945,10 @@
       <c r="F2" s="115"/>
       <c r="G2" s="115"/>
       <c r="H2" s="116"/>
-      <c r="I2" s="184" t="s">
+      <c r="I2" s="186" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="186"/>
+      <c r="J2" s="188"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="113"/>
@@ -4959,24 +4959,24 @@
       <c r="F3" s="118"/>
       <c r="G3" s="118"/>
       <c r="H3" s="119"/>
-      <c r="I3" s="184" t="s">
+      <c r="I3" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="186"/>
+      <c r="J3" s="188"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="113"/>
       <c r="B4" s="113"/>
       <c r="C4" s="113"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="184" t="s">
+      <c r="D4" s="209"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="186"/>
+      <c r="J4" s="188"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -5022,11 +5022,11 @@
       <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="207"/>
       <c r="E8" s="54" t="s">
         <v>2</v>
       </c>
@@ -5036,11 +5036,11 @@
       <c r="G8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="205" t="s">
+      <c r="H8" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="205"/>
-      <c r="J8" s="206"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="208"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
@@ -5054,7 +5054,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="99"/>
       <c r="I9" s="99"/>
-      <c r="J9" s="202"/>
+      <c r="J9" s="204"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
@@ -5069,7 +5069,7 @@
       <c r="G10" s="52"/>
       <c r="H10" s="99"/>
       <c r="I10" s="99"/>
-      <c r="J10" s="202"/>
+      <c r="J10" s="204"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
@@ -5084,7 +5084,7 @@
       <c r="G11" s="52"/>
       <c r="H11" s="99"/>
       <c r="I11" s="99"/>
-      <c r="J11" s="202"/>
+      <c r="J11" s="204"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
@@ -5099,7 +5099,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="99"/>
       <c r="I12" s="99"/>
-      <c r="J12" s="202"/>
+      <c r="J12" s="204"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
@@ -5114,7 +5114,7 @@
       <c r="G13" s="52"/>
       <c r="H13" s="99"/>
       <c r="I13" s="99"/>
-      <c r="J13" s="202"/>
+      <c r="J13" s="204"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
@@ -5129,7 +5129,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="99"/>
       <c r="I14" s="99"/>
-      <c r="J14" s="202"/>
+      <c r="J14" s="204"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55">
@@ -5144,7 +5144,7 @@
       <c r="G15" s="52"/>
       <c r="H15" s="99"/>
       <c r="I15" s="99"/>
-      <c r="J15" s="202"/>
+      <c r="J15" s="204"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
@@ -5159,7 +5159,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="99"/>
       <c r="I16" s="99"/>
-      <c r="J16" s="202"/>
+      <c r="J16" s="204"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
@@ -5174,7 +5174,7 @@
       <c r="G17" s="52"/>
       <c r="H17" s="99"/>
       <c r="I17" s="99"/>
-      <c r="J17" s="202"/>
+      <c r="J17" s="204"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
@@ -5189,21 +5189,21 @@
       <c r="G18" s="52"/>
       <c r="H18" s="99"/>
       <c r="I18" s="99"/>
-      <c r="J18" s="202"/>
+      <c r="J18" s="204"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>11</v>
       </c>
-      <c r="B19" s="203"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="203"/>
+      <c r="B19" s="205"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="205"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="204"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="206"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
